--- a/docs/odh/shr-core-ReferenceRange-model.xlsx
+++ b/docs/odh/shr-core-ReferenceRange-model.xlsx
@@ -9,13 +9,13 @@
     <sheet name="Elements" r:id="rId3" sheetId="1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="true">Elements!$A$1:$AI$8</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="62">
   <si>
     <t>Path</t>
   </si>
@@ -137,17 +137,23 @@
     <t>The usual or acceptable range for a test result.</t>
   </si>
   <si>
-    <t>shr-core-ReferenceRange-model.range</t>
+    <t>shr-core-ReferenceRange-model.lowerBound</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t xml:space="preserve">http://hl7.org/fhir/us/shr/StructureDefinition/shr-core-Range-model {[]} {[]}
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-SimpleQuantity-model {[]} {[]}
 </t>
   </si>
   <si>
-    <t>An interval defined by a quantitative upper and/or lower bound. One of the two bounds must be specified, and the lower bound must be less than the upper bound. When Quantities are specified, the units of measure must be the same.</t>
+    <t>The lower limit on a range</t>
+  </si>
+  <si>
+    <t>shr-core-ReferenceRange-model.upperBound</t>
+  </si>
+  <si>
+    <t>The upper limit on a quantitative value.</t>
   </si>
   <si>
     <t>shr-core-ReferenceRange-model.type</t>
@@ -186,7 +192,21 @@
     <t>shr-core-ReferenceRange-model.applicableAgeRange</t>
   </si>
   <si>
+    <t xml:space="preserve">http://hl7.org/fhir/us/odh/StructureDefinition/shr-core-Range-model {[]} {[]}
+</t>
+  </si>
+  <si>
     <t>The age at which this reference range is applicable. This is a neonatal age (e.g. number of weeks at term) if the meaning says so.</t>
+  </si>
+  <si>
+    <t>shr-core-ReferenceRange-model.text</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>A simple string.</t>
   </si>
 </sst>
 </file>
@@ -335,7 +355,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ6"/>
+  <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -354,7 +374,7 @@
     <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="212.171875" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="153.01953125" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -705,13 +725,13 @@
         <v>36</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="K4" t="s" s="2">
-        <v>46</v>
-      </c>
       <c r="L4" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
@@ -738,14 +758,16 @@
         <v>36</v>
       </c>
       <c r="W4" t="s" s="2">
-        <v>47</v>
-      </c>
-      <c r="X4" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="X4" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="Y4" t="s" s="2">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="Z4" t="s" s="2">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="AA4" t="s" s="2">
         <v>36</v>
@@ -777,7 +799,7 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -800,13 +822,13 @@
         <v>36</v>
       </c>
       <c r="J5" t="s" s="2">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K5" t="s" s="2">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
@@ -833,14 +855,14 @@
         <v>36</v>
       </c>
       <c r="W5" t="s" s="2">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="X5" s="2"/>
       <c r="Y5" t="s" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="Z5" t="s" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="AA5" t="s" s="2">
         <v>36</v>
@@ -855,7 +877,7 @@
         <v>36</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>37</v>
@@ -872,7 +894,7 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -895,13 +917,13 @@
         <v>36</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
@@ -928,16 +950,14 @@
         <v>36</v>
       </c>
       <c r="W6" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="X6" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="X6" s="2"/>
       <c r="Y6" t="s" s="2">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="Z6" t="s" s="2">
-        <v>36</v>
+        <v>55</v>
       </c>
       <c r="AA6" t="s" s="2">
         <v>36</v>
@@ -952,7 +972,7 @@
         <v>36</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>37</v>
@@ -967,8 +987,202 @@
         <v>36</v>
       </c>
     </row>
+    <row r="7" hidden="true">
+      <c r="A7" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J7" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="K7" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" hidden="true">
+      <c r="A8" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="D8" s="2"/>
+      <c r="E8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J8" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="K8" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>61</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="P8" s="2"/>
+      <c r="Q8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="AF8" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AG8" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:AI6">
+  <autoFilter ref="A1:AI8">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -978,7 +1192,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI5">
+  <conditionalFormatting sqref="A2:AI7">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>
